--- a/output/StructureDefinition-NatlDir-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDir-HealthcareService.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -598,15 +598,15 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
     <t>New Patients</t>
   </si>
   <si>
-    <t>New Patients indicates whether new patients are being accepted in general, or from a specific network.   
-              This extension is included in the PractitionerRole, HealthcareService, and Location profiles.  
+    <t>New Patients indicates whether new patients are being accepted in general, or from a specific network.   
+              This extension is included in the PractitionerRole, HealthcareService, and Location profiles.  
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
 </t>
   </si>
   <si>
@@ -879,7 +879,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -901,7 +901,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -916,13 +916,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/national-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory-query/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
 </t>
   </si>
   <si>
@@ -1804,7 +1804,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="79.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
